--- a/excels/lrc9-servtime-based.xlsx
+++ b/excels/lrc9-servtime-based.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GVNS\BasicVNS\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A422BC3-07CF-4748-BE30-5BD42E94081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4763F08-00A9-4B14-90B3-798C811D09CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 Vehicle" sheetId="1" r:id="rId1"/>
@@ -452,18 +452,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D269"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="45.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -491,7 +491,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -505,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -530,7 +530,7 @@
         <v>6.1740000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -538,22 +538,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -581,7 +581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -595,7 +595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -620,7 +620,7 @@
         <v>5.9660000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -628,22 +628,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -657,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -671,7 +671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -710,7 +710,7 @@
         <v>6.0220000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -718,22 +718,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -747,7 +747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -761,7 +761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -775,7 +775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -800,7 +800,7 @@
         <v>6.1310000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -808,22 +808,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -837,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -851,7 +851,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -865,7 +865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -879,7 +879,7 @@
         <v>2.0239190432382701</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -890,7 +890,7 @@
         <v>6.0380000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -898,22 +898,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
@@ -941,7 +941,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -980,7 +980,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -988,22 +988,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0.2607561929595828</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>6.08</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -1078,22 +1078,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>6.0190000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -1168,22 +1168,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>9</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>6.0309999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -1258,22 +1258,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>10</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>5.9109999999999996</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -1348,22 +1348,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>5.9349999999999996</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -1438,22 +1438,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>12</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>5.9829999999999997</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -1528,12 +1528,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>19</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>14</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>13</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0.29985007496251881</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>6.04</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -1624,22 +1624,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>2.0239190432382701</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>6.0510000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -1714,12 +1714,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>19</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>16</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>15</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>6.3280000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -1810,22 +1810,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>16</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0.2607561929595828</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>6.0540000000000003</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -1900,22 +1900,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C159" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>17</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>1.736385161799527</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>6.0439999999999996</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -1990,12 +1990,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>19</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>16</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>0</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>18</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>2.376910016977928</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>6.093</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -2086,12 +2086,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>19</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>16</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>19</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>5.944</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -2182,22 +2182,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>20</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>8</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>9</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>5.9669999999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -2272,12 +2272,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>19</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>14</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>0</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>21</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>9</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>5.9409999999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>10</v>
       </c>
@@ -2368,22 +2368,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C208" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C209" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>0</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>22</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>0.29985007496251881</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>9</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>5.9950000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>10</v>
       </c>
@@ -2458,22 +2458,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C218" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C219" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>0</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>23</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>8</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>2.0239190432382701</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>9</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>5.9960000000000004</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>10</v>
       </c>
@@ -2548,12 +2548,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>19</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>16</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>24</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>9</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -2644,12 +2644,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>19</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>16</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>25</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>0.2607561929595828</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>9</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>6.0460000000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>10</v>
       </c>
@@ -2740,22 +2740,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>0</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>26</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>4</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>1.736385161799527</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>6.0960000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>10</v>
       </c>
@@ -2830,12 +2830,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>19</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>16</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>0</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>27</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>4</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>2.376910016977928</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>6.1079999999999997</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -2926,17 +2926,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C268" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C269" t="s">
         <v>17</v>
       </c>
@@ -2951,18 +2951,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="E305" sqref="E305"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>28</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>2.4340000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3037,12 +3037,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>2.4870000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -3149,12 +3149,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>30</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>2.5379999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -3261,12 +3261,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>21</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>22</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>20</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>31</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>2.4249999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -3373,12 +3373,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>19</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>21</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>22</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>20</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>32</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>2.4319999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -3485,12 +3485,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>19</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>20</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>21</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>33</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>2.476</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3597,12 +3597,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>19</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>21</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>22</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>20</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>34</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>2.4910000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3709,12 +3709,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>19</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>20</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>22</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>21</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>35</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3821,12 +3821,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>19</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>21</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>22</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>20</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>36</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>2.4790000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3933,12 +3933,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>19</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>20</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>22</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>21</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>37</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>2.464</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -4045,12 +4045,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>19</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>20</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>22</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>21</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>38</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>2.4740000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -4157,12 +4157,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>19</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>20</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>22</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>21</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>39</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>2.524</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -4269,12 +4269,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>19</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>20</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>22</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>21</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>40</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>2.4390000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -4381,12 +4381,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>24</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>20</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>25</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>21</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>41</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>2.4420000000000002</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -4493,12 +4493,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>19</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>21</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>25</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>20</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>42</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>2.468</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -4605,12 +4605,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>24</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>20</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>22</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>21</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>43</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -4709,7 +4709,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -4717,12 +4717,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>19</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>21</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>22</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>20</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>44</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>2.4769999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -4829,12 +4829,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>19</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>21</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>22</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>20</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>45</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>2.4910000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -4941,12 +4941,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>24</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>20</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>22</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>21</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>46</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>2.4740000000000002</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -5053,12 +5053,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>19</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>21</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>22</v>
       </c>
@@ -5082,7 +5082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>20</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>47</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>2.4569999999999999</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -5165,12 +5165,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>26</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>20</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>27</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>21</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>48</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>9</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>2.5489999999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>10</v>
       </c>
@@ -5277,12 +5277,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>26</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>20</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>22</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>21</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>49</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>4</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>9</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>2.419</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -5389,12 +5389,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>19</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>21</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>27</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>20</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>50</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>2.4369999999999998</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -5501,12 +5501,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>19</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>21</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>22</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>20</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>51</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>2.4729999999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>10</v>
       </c>
@@ -5613,12 +5613,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>26</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>20</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>22</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>21</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>52</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>2.4980000000000002</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -5725,12 +5725,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>19</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>21</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>27</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>20</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>53</v>
       </c>
@@ -5790,7 +5790,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>4</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>8</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>10</v>
       </c>
@@ -5837,12 +5837,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>26</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>20</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>22</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>21</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>54</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>8</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>9</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>2.4620000000000002</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>10</v>
       </c>
@@ -5949,12 +5949,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>19</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>20</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>22</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>21</v>
       </c>
@@ -5996,16 +5996,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D323"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6019,7 +6021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>55</v>
       </c>
@@ -6033,7 +6035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6047,7 +6049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -6061,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -6072,7 +6074,7 @@
         <v>2.3359999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -6080,12 +6082,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -6093,7 +6095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -6101,7 +6103,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -6109,7 +6111,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -6117,7 +6119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -6131,7 +6133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>56</v>
       </c>
@@ -6145,7 +6147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -6159,7 +6161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -6173,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -6184,7 +6186,7 @@
         <v>2.3039999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -6192,12 +6194,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>19</v>
       </c>
@@ -6205,7 +6207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>21</v>
       </c>
@@ -6213,7 +6215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>22</v>
       </c>
@@ -6221,7 +6223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -6229,7 +6231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -6243,7 +6245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>57</v>
       </c>
@@ -6257,7 +6259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -6271,7 +6273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -6285,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -6296,7 +6298,7 @@
         <v>2.3519999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -6304,12 +6306,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -6317,7 +6319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>21</v>
       </c>
@@ -6325,7 +6327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>22</v>
       </c>
@@ -6333,7 +6335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>20</v>
       </c>
@@ -6341,7 +6343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -6355,7 +6357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>58</v>
       </c>
@@ -6369,7 +6371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -6383,7 +6385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -6397,7 +6399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -6408,7 +6410,7 @@
         <v>2.3170000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -6416,12 +6418,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>19</v>
       </c>
@@ -6429,7 +6431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>20</v>
       </c>
@@ -6437,7 +6439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>22</v>
       </c>
@@ -6445,7 +6447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>21</v>
       </c>
@@ -6453,7 +6455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -6467,7 +6469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>59</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -6495,7 +6497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -6509,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -6520,7 +6522,7 @@
         <v>2.3359999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -6528,12 +6530,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>19</v>
       </c>
@@ -6541,7 +6543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>21</v>
       </c>
@@ -6549,7 +6551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>22</v>
       </c>
@@ -6557,7 +6559,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>20</v>
       </c>
@@ -6565,7 +6567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -6579,7 +6581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6593,7 +6595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -6607,7 +6609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -6632,7 +6634,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -6640,12 +6642,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>19</v>
       </c>
@@ -6653,7 +6655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>20</v>
       </c>
@@ -6661,7 +6663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>22</v>
       </c>
@@ -6669,7 +6671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>21</v>
       </c>
@@ -6677,7 +6679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -6691,7 +6693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>61</v>
       </c>
@@ -6705,7 +6707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -6719,7 +6721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -6733,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -6744,7 +6746,7 @@
         <v>2.306</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -6752,12 +6754,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>19</v>
       </c>
@@ -6765,7 +6767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>21</v>
       </c>
@@ -6773,7 +6775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>22</v>
       </c>
@@ -6781,7 +6783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>20</v>
       </c>
@@ -6789,7 +6791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -6803,7 +6805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>62</v>
       </c>
@@ -6817,7 +6819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -6831,7 +6833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -6845,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -6856,7 +6858,7 @@
         <v>2.2850000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -6864,12 +6866,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>19</v>
       </c>
@@ -6877,7 +6879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>21</v>
       </c>
@@ -6885,7 +6887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>22</v>
       </c>
@@ -6893,7 +6895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>20</v>
       </c>
@@ -6901,7 +6903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -6915,7 +6917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>63</v>
       </c>
@@ -6929,7 +6931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -6943,7 +6945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -6957,7 +6959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -6968,7 +6970,7 @@
         <v>2.3260000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -6976,12 +6978,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>19</v>
       </c>
@@ -6989,7 +6991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>21</v>
       </c>
@@ -6997,7 +6999,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>22</v>
       </c>
@@ -7005,7 +7007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>20</v>
       </c>
@@ -7013,7 +7015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>0</v>
       </c>
@@ -7027,7 +7029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>64</v>
       </c>
@@ -7041,7 +7043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4</v>
       </c>
@@ -7055,7 +7057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -7069,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -7080,7 +7082,7 @@
         <v>2.331</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -7088,12 +7090,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>19</v>
       </c>
@@ -7101,7 +7103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>21</v>
       </c>
@@ -7109,7 +7111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>22</v>
       </c>
@@ -7117,7 +7119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>20</v>
       </c>
@@ -7125,7 +7127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>0</v>
       </c>
@@ -7139,7 +7141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>65</v>
       </c>
@@ -7153,7 +7155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>4</v>
       </c>
@@ -7167,7 +7169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -7181,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -7192,7 +7194,7 @@
         <v>2.3090000000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -7200,12 +7202,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>19</v>
       </c>
@@ -7213,7 +7215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>20</v>
       </c>
@@ -7221,7 +7223,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>22</v>
       </c>
@@ -7229,7 +7231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>21</v>
       </c>
@@ -7237,7 +7239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>0</v>
       </c>
@@ -7251,7 +7253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>66</v>
       </c>
@@ -7265,7 +7267,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>4</v>
       </c>
@@ -7279,7 +7281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -7293,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -7304,7 +7306,7 @@
         <v>2.351</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -7312,12 +7314,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>19</v>
       </c>
@@ -7325,7 +7327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>21</v>
       </c>
@@ -7333,7 +7335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>25</v>
       </c>
@@ -7341,7 +7343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>20</v>
       </c>
@@ -7349,7 +7351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>0</v>
       </c>
@@ -7363,7 +7365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>67</v>
       </c>
@@ -7377,7 +7379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -7391,7 +7393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
       </c>
@@ -7405,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>9</v>
       </c>
@@ -7416,7 +7418,7 @@
         <v>2.323</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -7424,12 +7426,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>19</v>
       </c>
@@ -7437,7 +7439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>20</v>
       </c>
@@ -7445,7 +7447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>22</v>
       </c>
@@ -7453,7 +7455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>21</v>
       </c>
@@ -7461,7 +7463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>0</v>
       </c>
@@ -7475,7 +7477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>68</v>
       </c>
@@ -7489,7 +7491,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -7503,7 +7505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -7517,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>9</v>
       </c>
@@ -7528,7 +7530,7 @@
         <v>2.327</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -7536,12 +7538,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>19</v>
       </c>
@@ -7549,7 +7551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>21</v>
       </c>
@@ -7557,7 +7559,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>25</v>
       </c>
@@ -7565,7 +7567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>20</v>
       </c>
@@ -7573,7 +7575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>0</v>
       </c>
@@ -7587,7 +7589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>69</v>
       </c>
@@ -7601,7 +7603,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -7615,7 +7617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -7629,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>9</v>
       </c>
@@ -7640,7 +7642,7 @@
         <v>2.3159999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -7648,12 +7650,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>24</v>
       </c>
@@ -7661,7 +7663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>20</v>
       </c>
@@ -7669,7 +7671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>22</v>
       </c>
@@ -7677,7 +7679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>21</v>
       </c>
@@ -7685,7 +7687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -7699,7 +7701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>70</v>
       </c>
@@ -7713,7 +7715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -7727,7 +7729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -7741,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>9</v>
       </c>
@@ -7752,7 +7754,7 @@
         <v>2.2749999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>10</v>
       </c>
@@ -7760,12 +7762,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>24</v>
       </c>
@@ -7773,7 +7775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>20</v>
       </c>
@@ -7781,7 +7783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>22</v>
       </c>
@@ -7789,7 +7791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>21</v>
       </c>
@@ -7797,7 +7799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>0</v>
       </c>
@@ -7811,7 +7813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>71</v>
       </c>
@@ -7825,7 +7827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -7839,7 +7841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -7853,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -7864,7 +7866,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -7872,12 +7874,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>19</v>
       </c>
@@ -7885,7 +7887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>21</v>
       </c>
@@ -7893,7 +7895,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>22</v>
       </c>
@@ -7901,7 +7903,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>20</v>
       </c>
@@ -7909,7 +7911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>0</v>
       </c>
@@ -7923,7 +7925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>72</v>
       </c>
@@ -7937,7 +7939,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -7951,7 +7953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -7965,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>9</v>
       </c>
@@ -7976,7 +7978,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>10</v>
       </c>
@@ -7984,12 +7986,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>24</v>
       </c>
@@ -7997,7 +7999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>20</v>
       </c>
@@ -8005,7 +8007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>22</v>
       </c>
@@ -8013,7 +8015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>21</v>
       </c>
@@ -8021,7 +8023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>0</v>
       </c>
@@ -8035,7 +8037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>73</v>
       </c>
@@ -8049,7 +8051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -8063,7 +8065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>8</v>
       </c>
@@ -8077,7 +8079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>9</v>
       </c>
@@ -8088,7 +8090,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>10</v>
       </c>
@@ -8096,12 +8098,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>19</v>
       </c>
@@ -8109,7 +8111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>20</v>
       </c>
@@ -8117,7 +8119,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>22</v>
       </c>
@@ -8125,7 +8127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>21</v>
       </c>
@@ -8133,7 +8135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -8147,7 +8149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>74</v>
       </c>
@@ -8161,7 +8163,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -8175,7 +8177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -8189,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>9</v>
       </c>
@@ -8200,7 +8202,7 @@
         <v>2.3820000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -8208,12 +8210,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>26</v>
       </c>
@@ -8221,7 +8223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>20</v>
       </c>
@@ -8229,7 +8231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>27</v>
       </c>
@@ -8237,7 +8239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>21</v>
       </c>
@@ -8245,7 +8247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>0</v>
       </c>
@@ -8259,7 +8261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>75</v>
       </c>
@@ -8273,7 +8275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>4</v>
       </c>
@@ -8287,7 +8289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -8301,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>9</v>
       </c>
@@ -8312,7 +8314,7 @@
         <v>2.4529999999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>10</v>
       </c>
@@ -8320,32 +8322,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C248" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C249" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C250" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C251" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>0</v>
       </c>
@@ -8359,7 +8361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>76</v>
       </c>
@@ -8373,7 +8375,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>4</v>
       </c>
@@ -8387,7 +8389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -8401,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>9</v>
       </c>
@@ -8412,7 +8414,7 @@
         <v>2.3170000000000002</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -8420,12 +8422,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>19</v>
       </c>
@@ -8433,7 +8435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>20</v>
       </c>
@@ -8441,7 +8443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>22</v>
       </c>
@@ -8449,7 +8451,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>21</v>
       </c>
@@ -8457,7 +8459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>0</v>
       </c>
@@ -8471,7 +8473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>77</v>
       </c>
@@ -8485,7 +8487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -8499,7 +8501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -8513,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -8524,7 +8526,7 @@
         <v>2.3479999999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>10</v>
       </c>
@@ -8532,12 +8534,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>19</v>
       </c>
@@ -8545,7 +8547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>21</v>
       </c>
@@ -8553,7 +8555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>22</v>
       </c>
@@ -8561,7 +8563,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>20</v>
       </c>
@@ -8569,7 +8571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>0</v>
       </c>
@@ -8583,7 +8585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>78</v>
       </c>
@@ -8597,7 +8599,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>4</v>
       </c>
@@ -8611,7 +8613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -8625,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -8636,7 +8638,7 @@
         <v>2.3260000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>10</v>
       </c>
@@ -8644,12 +8646,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>19</v>
       </c>
@@ -8657,7 +8659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>20</v>
       </c>
@@ -8665,7 +8667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>22</v>
       </c>
@@ -8673,7 +8675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>21</v>
       </c>
@@ -8681,7 +8683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>0</v>
       </c>
@@ -8695,7 +8697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>79</v>
       </c>
@@ -8709,7 +8711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -8723,7 +8725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>8</v>
       </c>
@@ -8737,7 +8739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>9</v>
       </c>
@@ -8748,7 +8750,7 @@
         <v>2.3180000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -8756,12 +8758,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B296" t="s">
         <v>19</v>
       </c>
@@ -8769,7 +8771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B297" t="s">
         <v>21</v>
       </c>
@@ -8777,7 +8779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B298" t="s">
         <v>22</v>
       </c>
@@ -8785,7 +8787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B299" t="s">
         <v>20</v>
       </c>
@@ -8793,7 +8795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>0</v>
       </c>
@@ -8807,7 +8809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>80</v>
       </c>
@@ -8821,7 +8823,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>4</v>
       </c>
@@ -8835,7 +8837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>8</v>
       </c>
@@ -8849,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>9</v>
       </c>
@@ -8860,7 +8862,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>10</v>
       </c>
@@ -8868,12 +8870,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B308" t="s">
         <v>26</v>
       </c>
@@ -8881,7 +8883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B309" t="s">
         <v>20</v>
       </c>
@@ -8889,7 +8891,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B310" t="s">
         <v>22</v>
       </c>
@@ -8897,7 +8899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B311" t="s">
         <v>21</v>
       </c>
@@ -8905,7 +8907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>0</v>
       </c>
@@ -8919,7 +8921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>81</v>
       </c>
@@ -8933,7 +8935,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -8947,7 +8949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>8</v>
       </c>
@@ -8961,7 +8963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>9</v>
       </c>
@@ -8972,7 +8974,7 @@
         <v>2.2869999999999999</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>10</v>
       </c>
@@ -8980,12 +8982,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B320" t="s">
         <v>26</v>
       </c>
@@ -8993,7 +8995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" t="s">
         <v>20</v>
       </c>
@@ -9001,7 +9003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" t="s">
         <v>22</v>
       </c>
@@ -9009,7 +9011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" t="s">
         <v>21</v>
       </c>
